--- a/20251014/1章人工知能（AI）とは_問題演習.xlsx
+++ b/20251014/1章人工知能（AI）とは_問題演習.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubahiro/Documents/03.募集案件/2025/東京工学院様/3年生_G検定資格/20251014/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BF5D6-FFED-BF40-BAAB-F58BA992C3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6CFB4-8D8F-A149-AA3C-F024D04868B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="3580" windowWidth="28300" windowHeight="17360" xr2:uid="{9F5C7E6D-ADF9-C842-BF72-5D859BF0DBF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
   <si>
     <t>人工知能で何か新しいことが実現されても、「単純な自動化であり、知能とは関係ない」と</t>
     <rPh sb="0" eb="4">
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>ENIGMA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANIAC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1117,7 +1113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,9 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:29">
@@ -1628,12 +1621,12 @@
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="2:29">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="K15" s="12"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1655,12 +1648,12 @@
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="2:29">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1682,12 +1675,12 @@
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="K17" s="12"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1755,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:29">
@@ -1763,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:29">
@@ -1771,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:29">
@@ -1779,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:29">
@@ -1837,12 +1830,12 @@
       <c r="AC30" s="14"/>
     </row>
     <row r="31" spans="2:29">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -1864,12 +1857,12 @@
       <c r="AC31" s="14"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="K32" s="12"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -1891,12 +1884,12 @@
       <c r="AC32" s="14"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -1943,17 +1936,17 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:29">
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:29">
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:29">
@@ -1961,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:29">
@@ -1969,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:29">
@@ -1977,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:29">
@@ -1985,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:29">
@@ -1993,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:29">
@@ -2051,12 +2044,12 @@
       <c r="AC47" s="14"/>
     </row>
     <row r="48" spans="2:29">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="K48" s="12"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -2078,12 +2071,12 @@
       <c r="AC48" s="14"/>
     </row>
     <row r="49" spans="2:29">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="K49" s="12"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -2105,12 +2098,12 @@
       <c r="AC49" s="14"/>
     </row>
     <row r="50" spans="2:29">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="K50" s="12"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -2157,17 +2150,17 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:29">
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:29">
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="2:29">
@@ -2175,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:29">
@@ -2183,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="2:29">
@@ -2191,7 +2184,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:29">
@@ -2199,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="2:29">
@@ -2207,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:29">
@@ -2265,12 +2258,12 @@
       <c r="AC64" s="14"/>
     </row>
     <row r="65" spans="2:29">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
       <c r="K65" s="12"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
@@ -2292,12 +2285,12 @@
       <c r="AC65" s="14"/>
     </row>
     <row r="66" spans="2:29">
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
       <c r="K66" s="12"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
@@ -2319,12 +2312,12 @@
       <c r="AC66" s="14"/>
     </row>
     <row r="67" spans="2:29">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
       <c r="K67" s="12"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
@@ -2385,17 +2378,17 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:29">
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="2:29">
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="2:29">
@@ -2403,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="2:29">
@@ -2411,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:29">
@@ -2419,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:29">
@@ -2427,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="2:29">
@@ -2435,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="K79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="2:29">
@@ -2493,12 +2486,12 @@
       <c r="AC81" s="14"/>
     </row>
     <row r="82" spans="2:29">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
       <c r="K82" s="12"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
@@ -2520,12 +2513,12 @@
       <c r="AC82" s="14"/>
     </row>
     <row r="83" spans="2:29">
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
       <c r="K83" s="12"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
@@ -2547,12 +2540,12 @@
       <c r="AC83" s="14"/>
     </row>
     <row r="84" spans="2:29">
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
       <c r="K84" s="12"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
@@ -2599,17 +2592,17 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="2:29">
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="2:29">
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="2:29">
@@ -2617,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="2:29">
@@ -2625,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:29">
@@ -2633,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="2:29">
@@ -2641,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="2:29">
@@ -2649,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="K96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="2:29">
@@ -2707,12 +2700,12 @@
       <c r="AC98" s="14"/>
     </row>
     <row r="99" spans="2:29">
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
       <c r="K99" s="12"/>
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
@@ -2734,12 +2727,12 @@
       <c r="AC99" s="14"/>
     </row>
     <row r="100" spans="2:29">
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="K100" s="12"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
@@ -2761,12 +2754,12 @@
       <c r="AC100" s="14"/>
     </row>
     <row r="101" spans="2:29">
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
       <c r="K101" s="12"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
@@ -2813,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="2:29">
@@ -2821,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="2:29">
@@ -2829,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="2:29">
@@ -2837,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="2:29">
@@ -2845,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="2:29">
@@ -2853,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="K111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="2:29">
@@ -2911,12 +2904,12 @@
       <c r="AC113" s="14"/>
     </row>
     <row r="114" spans="2:29">
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
       <c r="K114" s="12"/>
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
@@ -2938,12 +2931,12 @@
       <c r="AC114" s="14"/>
     </row>
     <row r="115" spans="2:29">
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
       <c r="K115" s="12"/>
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
@@ -2965,12 +2958,12 @@
       <c r="AC115" s="14"/>
     </row>
     <row r="116" spans="2:29">
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="K116" s="12"/>
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
@@ -3017,12 +3010,12 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="2:29">
       <c r="C120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="2:29">
@@ -3030,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="2:29">
@@ -3038,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="2:29">
@@ -3046,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="2:29">
@@ -3054,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="2:29">
@@ -3062,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="2:29">
@@ -3120,12 +3113,12 @@
       <c r="AC129" s="14"/>
     </row>
     <row r="130" spans="2:29">
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
       <c r="K130" s="12"/>
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
@@ -3147,12 +3140,12 @@
       <c r="AC130" s="14"/>
     </row>
     <row r="131" spans="2:29">
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
       <c r="K131" s="12"/>
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
@@ -3174,12 +3167,12 @@
       <c r="AC131" s="14"/>
     </row>
     <row r="132" spans="2:29">
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
       <c r="K132" s="12"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
@@ -3226,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="2:29">
@@ -3234,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="2:29">
@@ -3242,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="2:29">
@@ -3250,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="2:29">
@@ -3258,7 +3251,7 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="2:29">
@@ -3266,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="K143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="2:29">
@@ -3324,12 +3317,12 @@
       <c r="AC145" s="14"/>
     </row>
     <row r="146" spans="2:29">
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
       <c r="K146" s="12"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -3351,12 +3344,12 @@
       <c r="AC146" s="14"/>
     </row>
     <row r="147" spans="2:29">
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
       <c r="K147" s="12"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
@@ -3378,12 +3371,12 @@
       <c r="AC147" s="14"/>
     </row>
     <row r="148" spans="2:29">
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
       <c r="K148" s="12"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -3430,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="2:29">
@@ -3438,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:29">
@@ -3446,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="2:29">
@@ -3454,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="2:29">
@@ -3462,7 +3455,7 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="2:29">
@@ -3470,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="K159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="2:29">
@@ -3528,12 +3521,12 @@
       <c r="AC161" s="14"/>
     </row>
     <row r="162" spans="2:29">
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
       <c r="K162" s="12"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -3555,12 +3548,12 @@
       <c r="AC162" s="14"/>
     </row>
     <row r="163" spans="2:29">
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
       <c r="K163" s="12"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
@@ -3582,12 +3575,12 @@
       <c r="AC163" s="14"/>
     </row>
     <row r="164" spans="2:29">
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
       <c r="K164" s="12"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -3634,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="2:29">
@@ -3642,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="2:29">
@@ -3650,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="2:29">
@@ -3658,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="2:29">
@@ -3666,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="2:29">
@@ -3674,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="K175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" spans="2:29">
@@ -3732,12 +3725,12 @@
       <c r="AC177" s="14"/>
     </row>
     <row r="178" spans="2:29">
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
       <c r="K178" s="12"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
@@ -3759,12 +3752,12 @@
       <c r="AC178" s="14"/>
     </row>
     <row r="179" spans="2:29">
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
       <c r="K179" s="12"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
@@ -3786,12 +3779,12 @@
       <c r="AC179" s="14"/>
     </row>
     <row r="180" spans="2:29">
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
       <c r="K180" s="12"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
@@ -3838,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="2:29">
@@ -3846,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="2:29">
@@ -3854,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="2:29">
@@ -3862,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="2:29">
@@ -3870,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="2:29">
@@ -3878,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="K191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="2:29">
@@ -3936,12 +3929,12 @@
       <c r="AC193" s="14"/>
     </row>
     <row r="194" spans="2:29">
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
       <c r="K194" s="12"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
@@ -3963,12 +3956,12 @@
       <c r="AC194" s="14"/>
     </row>
     <row r="195" spans="2:29">
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
       <c r="K195" s="12"/>
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
@@ -3990,12 +3983,12 @@
       <c r="AC195" s="14"/>
     </row>
     <row r="196" spans="2:29">
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
       <c r="K196" s="12"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
@@ -4042,7 +4035,7 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="2:29">
@@ -4050,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="2:29">
@@ -4058,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="2:29">
@@ -4066,7 +4059,7 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="205" spans="2:29">
@@ -4074,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="2:29">
@@ -4082,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="K207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="2:29">
@@ -4140,12 +4133,12 @@
       <c r="AC209" s="14"/>
     </row>
     <row r="210" spans="2:29">
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
       <c r="K210" s="12"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
@@ -4167,12 +4160,12 @@
       <c r="AC210" s="14"/>
     </row>
     <row r="211" spans="2:29">
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
       <c r="K211" s="12"/>
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
@@ -4194,12 +4187,12 @@
       <c r="AC211" s="14"/>
     </row>
     <row r="212" spans="2:29">
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
       <c r="K212" s="12"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
@@ -4246,12 +4239,12 @@
         <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="2:29">
       <c r="C217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="2:29">
@@ -4259,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="2:29">
@@ -4267,7 +4260,7 @@
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="2:29">
@@ -4275,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="2:29">
@@ -4283,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="2:29">
@@ -4291,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="K224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="2:29">
@@ -4349,12 +4342,12 @@
       <c r="AC226" s="14"/>
     </row>
     <row r="227" spans="2:29">
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
       <c r="K227" s="12"/>
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
@@ -4376,12 +4369,12 @@
       <c r="AC227" s="14"/>
     </row>
     <row r="228" spans="2:29">
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
-      <c r="H228" s="18"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
       <c r="K228" s="12"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
@@ -4403,12 +4396,12 @@
       <c r="AC228" s="14"/>
     </row>
     <row r="229" spans="2:29">
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
       <c r="K229" s="12"/>
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
@@ -4455,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="2:29">
@@ -4463,7 +4456,7 @@
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="2:29">
@@ -4471,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="2:29">
@@ -4479,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="2:29">
@@ -4487,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="2:29">
@@ -4495,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="K240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241" spans="2:29">
@@ -4553,12 +4546,12 @@
       <c r="AC242" s="14"/>
     </row>
     <row r="243" spans="2:29">
-      <c r="C243" s="18"/>
-      <c r="D243" s="18"/>
-      <c r="E243" s="18"/>
-      <c r="F243" s="18"/>
-      <c r="G243" s="18"/>
-      <c r="H243" s="18"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
       <c r="K243" s="12"/>
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
@@ -4580,12 +4573,12 @@
       <c r="AC243" s="14"/>
     </row>
     <row r="244" spans="2:29">
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
-      <c r="H244" s="18"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
       <c r="K244" s="12"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
@@ -4607,12 +4600,12 @@
       <c r="AC244" s="14"/>
     </row>
     <row r="245" spans="2:29">
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
       <c r="K245" s="12"/>
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
@@ -4659,12 +4652,12 @@
         <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="2:29">
       <c r="C250" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="2:29">
@@ -4672,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="2:29">
@@ -4680,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="2:29">
@@ -4688,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="2:29">
@@ -4696,7 +4689,7 @@
         <v>8</v>
       </c>
       <c r="D255" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="2:29">
@@ -4704,7 +4697,7 @@
         <v>11</v>
       </c>
       <c r="K257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="2:29">
@@ -4762,12 +4755,12 @@
       <c r="AC259" s="14"/>
     </row>
     <row r="260" spans="2:29">
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
-      <c r="F260" s="18"/>
-      <c r="G260" s="18"/>
-      <c r="H260" s="18"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
       <c r="K260" s="12"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
@@ -4789,12 +4782,12 @@
       <c r="AC260" s="14"/>
     </row>
     <row r="261" spans="2:29">
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
-      <c r="F261" s="18"/>
-      <c r="G261" s="18"/>
-      <c r="H261" s="18"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
       <c r="K261" s="12"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
@@ -4816,12 +4809,12 @@
       <c r="AC261" s="14"/>
     </row>
     <row r="262" spans="2:29">
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
-      <c r="G262" s="18"/>
-      <c r="H262" s="18"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
       <c r="K262" s="12"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
@@ -4868,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="C266" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="2:29">
@@ -4876,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="2:29">
@@ -4884,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="2:29">
@@ -4892,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="2:29">
@@ -4900,7 +4893,7 @@
         <v>8</v>
       </c>
       <c r="D271" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="2:29">
@@ -4908,7 +4901,7 @@
         <v>11</v>
       </c>
       <c r="K273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="274" spans="2:29">
@@ -4966,12 +4959,12 @@
       <c r="AC275" s="14"/>
     </row>
     <row r="276" spans="2:29">
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="18"/>
-      <c r="F276" s="18"/>
-      <c r="G276" s="18"/>
-      <c r="H276" s="18"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
       <c r="K276" s="12"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
@@ -4993,12 +4986,12 @@
       <c r="AC276" s="14"/>
     </row>
     <row r="277" spans="2:29">
-      <c r="C277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="18"/>
-      <c r="G277" s="18"/>
-      <c r="H277" s="18"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
       <c r="K277" s="12"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
@@ -5020,12 +5013,12 @@
       <c r="AC277" s="14"/>
     </row>
     <row r="278" spans="2:29">
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="18"/>
-      <c r="G278" s="18"/>
-      <c r="H278" s="18"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
       <c r="K278" s="12"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
@@ -5072,12 +5065,12 @@
         <v>18</v>
       </c>
       <c r="C282" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="2:29">
       <c r="C283" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="2:29">
@@ -5085,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="D285" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="2:29">
@@ -5093,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="D286" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="2:29">
@@ -5101,7 +5094,7 @@
         <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="2:29">
@@ -5109,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="D288" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="2:29">
@@ -5117,7 +5110,7 @@
         <v>11</v>
       </c>
       <c r="K290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="291" spans="2:29">
@@ -5175,12 +5168,12 @@
       <c r="AC292" s="14"/>
     </row>
     <row r="293" spans="2:29">
-      <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
-      <c r="F293" s="18"/>
-      <c r="G293" s="18"/>
-      <c r="H293" s="18"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
       <c r="K293" s="12"/>
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
@@ -5202,12 +5195,12 @@
       <c r="AC293" s="14"/>
     </row>
     <row r="294" spans="2:29">
-      <c r="C294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18"/>
-      <c r="F294" s="18"/>
-      <c r="G294" s="18"/>
-      <c r="H294" s="18"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
       <c r="K294" s="12"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
@@ -5229,12 +5222,12 @@
       <c r="AC294" s="14"/>
     </row>
     <row r="295" spans="2:29">
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
-      <c r="H295" s="18"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
       <c r="K295" s="12"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
@@ -5281,12 +5274,12 @@
         <v>19</v>
       </c>
       <c r="C299" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="2:29">
       <c r="C300" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="2:29">
@@ -5294,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="D302" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="2:29">
@@ -5302,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="304" spans="2:29">
@@ -5310,7 +5303,7 @@
         <v>6</v>
       </c>
       <c r="D304" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305" spans="2:29">
@@ -5318,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="D305" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" spans="2:29">
@@ -5326,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="K307" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="2:29">
@@ -5384,12 +5377,12 @@
       <c r="AC309" s="14"/>
     </row>
     <row r="310" spans="2:29">
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
-      <c r="H310" s="18"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
       <c r="K310" s="12"/>
       <c r="L310" s="13"/>
       <c r="M310" s="13"/>
@@ -5411,12 +5404,12 @@
       <c r="AC310" s="14"/>
     </row>
     <row r="311" spans="2:29">
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
-      <c r="G311" s="18"/>
-      <c r="H311" s="18"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
       <c r="K311" s="12"/>
       <c r="L311" s="13"/>
       <c r="M311" s="13"/>
@@ -5438,12 +5431,12 @@
       <c r="AC311" s="14"/>
     </row>
     <row r="312" spans="2:29">
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18"/>
-      <c r="F312" s="18"/>
-      <c r="G312" s="18"/>
-      <c r="H312" s="18"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
       <c r="K312" s="12"/>
       <c r="L312" s="13"/>
       <c r="M312" s="13"/>
@@ -5490,12 +5483,12 @@
         <v>20</v>
       </c>
       <c r="C316" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="317" spans="2:29">
       <c r="C317" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="319" spans="2:29">
@@ -5503,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="D319" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="2:29">
@@ -5511,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="D320" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="3:29">
@@ -5519,7 +5512,7 @@
         <v>6</v>
       </c>
       <c r="D321" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="3:29">
@@ -5527,7 +5520,7 @@
         <v>8</v>
       </c>
       <c r="D322" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="3:29">
@@ -5535,7 +5528,7 @@
         <v>11</v>
       </c>
       <c r="K324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="325" spans="3:29">
@@ -5593,12 +5586,12 @@
       <c r="AC326" s="14"/>
     </row>
     <row r="327" spans="3:29">
-      <c r="C327" s="18"/>
-      <c r="D327" s="18"/>
-      <c r="E327" s="18"/>
-      <c r="F327" s="18"/>
-      <c r="G327" s="18"/>
-      <c r="H327" s="18"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
       <c r="K327" s="12"/>
       <c r="L327" s="13"/>
       <c r="M327" s="13"/>
@@ -5620,12 +5613,12 @@
       <c r="AC327" s="14"/>
     </row>
     <row r="328" spans="3:29">
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="18"/>
-      <c r="H328" s="18"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
       <c r="K328" s="12"/>
       <c r="L328" s="13"/>
       <c r="M328" s="13"/>
@@ -5647,12 +5640,12 @@
       <c r="AC328" s="14"/>
     </row>
     <row r="329" spans="3:29">
-      <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="18"/>
-      <c r="F329" s="18"/>
-      <c r="G329" s="18"/>
-      <c r="H329" s="18"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
       <c r="K329" s="12"/>
       <c r="L329" s="13"/>
       <c r="M329" s="13"/>
@@ -5696,46 +5689,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C97:H98"/>
-    <mergeCell ref="C176:H177"/>
-    <mergeCell ref="K176:AC181"/>
-    <mergeCell ref="C112:H113"/>
-    <mergeCell ref="C128:H129"/>
-    <mergeCell ref="K13:AC18"/>
-    <mergeCell ref="K29:AC34"/>
-    <mergeCell ref="K46:AC51"/>
-    <mergeCell ref="K63:AC68"/>
-    <mergeCell ref="K80:AC85"/>
-    <mergeCell ref="K97:AC102"/>
-    <mergeCell ref="K112:AC117"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="C46:H47"/>
-    <mergeCell ref="C63:H64"/>
-    <mergeCell ref="C80:H81"/>
-    <mergeCell ref="K128:AC133"/>
-    <mergeCell ref="C144:H145"/>
-    <mergeCell ref="K144:AC149"/>
-    <mergeCell ref="C160:H161"/>
-    <mergeCell ref="K160:AC165"/>
+    <mergeCell ref="C291:H292"/>
+    <mergeCell ref="K291:AC296"/>
+    <mergeCell ref="C308:H309"/>
+    <mergeCell ref="K308:AC313"/>
+    <mergeCell ref="C325:H326"/>
+    <mergeCell ref="K325:AC330"/>
+    <mergeCell ref="C241:H242"/>
+    <mergeCell ref="K241:AC246"/>
+    <mergeCell ref="C258:H259"/>
+    <mergeCell ref="K258:AC263"/>
+    <mergeCell ref="C274:H275"/>
+    <mergeCell ref="K274:AC279"/>
     <mergeCell ref="C192:H193"/>
     <mergeCell ref="K192:AC197"/>
     <mergeCell ref="C208:H209"/>
     <mergeCell ref="K208:AC213"/>
     <mergeCell ref="C225:H226"/>
     <mergeCell ref="K225:AC230"/>
-    <mergeCell ref="C241:H242"/>
-    <mergeCell ref="K241:AC246"/>
-    <mergeCell ref="C258:H259"/>
-    <mergeCell ref="K258:AC263"/>
-    <mergeCell ref="C274:H275"/>
-    <mergeCell ref="K274:AC279"/>
-    <mergeCell ref="C291:H292"/>
-    <mergeCell ref="K291:AC296"/>
-    <mergeCell ref="C308:H309"/>
-    <mergeCell ref="K308:AC313"/>
-    <mergeCell ref="C325:H326"/>
-    <mergeCell ref="K325:AC330"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="C46:H47"/>
+    <mergeCell ref="C63:H64"/>
+    <mergeCell ref="C80:H81"/>
+    <mergeCell ref="K13:AC18"/>
+    <mergeCell ref="K29:AC34"/>
+    <mergeCell ref="K46:AC51"/>
+    <mergeCell ref="K63:AC68"/>
+    <mergeCell ref="K80:AC85"/>
+    <mergeCell ref="C97:H98"/>
+    <mergeCell ref="C176:H177"/>
+    <mergeCell ref="K176:AC181"/>
+    <mergeCell ref="C112:H113"/>
+    <mergeCell ref="C128:H129"/>
+    <mergeCell ref="K97:AC102"/>
+    <mergeCell ref="K112:AC117"/>
+    <mergeCell ref="K128:AC133"/>
+    <mergeCell ref="C144:H145"/>
+    <mergeCell ref="K144:AC149"/>
+    <mergeCell ref="C160:H161"/>
+    <mergeCell ref="K160:AC165"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20251014/1章人工知能（AI）とは_問題演習.xlsx
+++ b/20251014/1章人工知能（AI）とは_問題演習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubahiro/Documents/03.募集案件/2025/東京工学院様/3年生_G検定資格/20251014/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6CFB4-8D8F-A149-AA3C-F024D04868B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB797715-BA27-7A42-B63B-21E5E5727E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="3580" windowWidth="28300" windowHeight="17360" xr2:uid="{9F5C7E6D-ADF9-C842-BF72-5D859BF0DBF1}"/>
+    <workbookView xWindow="2260" yWindow="1380" windowWidth="28300" windowHeight="17360" xr2:uid="{9F5C7E6D-ADF9-C842-BF72-5D859BF0DBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="20251014" sheetId="2" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A183AB6-96BC-EE44-B9DD-E2440B5F40D9}">
   <dimension ref="B2:AC330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20"/>
   <sheetData>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="2:29">
